--- a/baby-h-finding-llama3.2.xlsx
+++ b/baby-h-finding-llama3.2.xlsx
@@ -28,7 +28,7 @@
     <t>LLM_ANSWER</t>
   </si>
   <si>
-    <t>baby-h-finding-llama3.2</t>
+    <t>Baby-H-finding</t>
   </si>
   <si>
     <t>Who was the deceased?</t>
@@ -121,85 +121,85 @@
     <t>Yes. The case exposed systemic shortcomings in child-protection coordination and highlighted the need for: Stronger inter-agency cooperation, Early-intervention programs for vulnerable young mothers, and Regular review of departmental policies governing children in care. The Coroner emphasized that better communication between welfare and health services could prevent similar tragedies in the future</t>
   </si>
   <si>
-    <t>The deceased was referred to as 'Baby H' without a specified first name.</t>
-  </si>
-  <si>
-    <t>The cause of death was determined after a post-mortem examination on May 29, 2017. However, it is mentioned that Baby H was placed into care and protection by the Department shortly after she suffered inflicted injuries on May 26, 2017, which suggests that her death may have occurred some days after May 26, 2017.</t>
-  </si>
-  <si>
-    <t>The death of Baby H occurred at Princess Margaret Hospital.</t>
-  </si>
-  <si>
-    <t>The cause of death was determined to be head and neck injuries.</t>
-  </si>
-  <si>
-    <t>The presiding coroner in this case was Philip John Urquhart.</t>
-  </si>
-  <si>
-    <t>Based on the provided context information, the circumstances leading to Baby H's death were as follows:
-* Two days before her death, Baby H was placed into the care of the Chief Executive Officer (CEO) of the Department of Child Protection and Family Support.
-* At that time, Baby H had been suffering from horrific inflicted injuries.
-* After being placed in care, further investigations were conducted, including a post-mortem examination by Dr. Judith McCreath, which revealed severe head and neck injuries.
-* The findings suggested that Baby H died as a result of these head and neck injuries.
-It is also mentioned that the Department had missed opportunities to intervene earlier, but it is stated that being involved in those missed opportunities does not mean they should be held responsible for subsequent death. Instead, the person ultimately responsible for Baby H's death was her mother.</t>
-  </si>
-  <si>
-    <t>Based on the provided context information, it appears that Baby H had no specific medical or mental health history mentioned. However, microscopic examination of their tissues showed stress-related changes in the thymus gland, which suggests some level of physical stress or trauma prior to their death. Additionally, they were found with bruising on their arm, neck, and jawline, as well as a right subdural hemorrhage over the cerebral hemisphere and diffuse subarachnoid hemorrhage, indicating significant physical trauma.
-There is no mention of any relevant medical or mental health history that may have contributed to Baby H's death. The cause of death was not determined at the time of the post-mortem examination, but further investigations were pending.</t>
-  </si>
-  <si>
-    <t>The following individuals testified or assisted in the inquest:
-1. Baby H's maternal grandmother
-2. Maria Barry (team leader with the Department)
-3. Sergeant Simon Bowen (detective with the Homicide squad)
-4. Nicole Mitchell (team leader with the Department)
-5. Suzanne Smith (registered nurse at BRH)
-6. Tara Tomsett (child protection worker with the Department)
-7. Dr Helen Truong (resident medical officer in the emergency department of BRH)
-8. Glenn Mace (executive director in the Community Services division of the Department)
-9. Dr Isaac Adewumi (consultant medical officer in the emergency department of BRH)
-10. Dr Louise Houliston (forensic paediatrician, Child Protection Unit at PMH)
-11. Sharlene Abbott (acting director of Population Health at WACHS South West)</t>
-  </si>
-  <si>
-    <t>Yes, according to the provided context information, immediately before her death, Baby H was a 'person held in care" within the meaning of the Coroners Act 1996 (WA).</t>
-  </si>
-  <si>
-    <t>Based on the provided context information, there is no direct mention of toxicology findings. However, it can be inferred that some substance or substances may have contributed to Baby H's death based on the cause of death mentioned earlier (right subdural haemorrhage over the cerebral hemisphere and diffuse subarachnoid haemorrhage).
-The presence of bronchopneumonia in the lungs and stress-related changes in the thymus gland also suggest that Baby H may have been under some form of stress or physical strain, which could potentially be related to substance use.
-Unfortunately, without further information on toxicology findings, it is not possible to provide a definitive summary of any substances found in Baby H's body.</t>
-  </si>
-  <si>
-    <t>Based on the provided context, it is unclear what specific findings were made by the Coroner P J Urquhart. However, according to Section 25(1)(b) and (c), Coroners Act 1996 (WA), the coroner's primary function was to investigate Baby Hs death and find the cause of her death. The coroner also made three recommendations aimed at addressing identified issues during the inquest.</t>
-  </si>
-  <si>
-    <t>Based on the provided context information, it appears that the coroner made recommendations aimed at addressing further issues identified during the inquest. However, there is no explicit mention of specific recommendations for future prevention.
-The available documents suggest that the coroner:
-1. Made three recommendations to address additional issues identified during the inquest.
-2. Reiterated a recommendation from another case (Inquest into the death of PT [2020] WACOR 26) as relevant to this inquiry, indicating a potential need for improved reporting procedures.
-There is no clear indication that the coroner made concrete recommendations for future prevention measures beyond those already suggested or implemented by governmental departments following Baby H's death.</t>
-  </si>
-  <si>
-    <t>Based on the provided context information, the immediate cause of death could not be determined by Dr. Judith McCreath due to further investigations being pending.
-However, microscopic examination of Baby H's tissues showed bronchopneumonia in the lungs and stress-related changes in the thymus (a gland in the chest). 
-The contributing factors that may have led to Baby H's death include:
-1. Bronchopneumonia: an infection that can be life-threatening.
-2. Stress-related changes in the thymus: this could be related to the mother's pregnancy or other stressors, which may have weakened Baby H's immune system.
-It is essential to note that these are contributing factors and not necessarily the direct cause of death.
-The manner of death is still unclear due to pending investigations.</t>
-  </si>
-  <si>
-    <t>Yes, the coroner evaluated the adequacy of supervision, treatment, or care provided. The text states that as part of the inquest, the coroner is required to comment on "the quality of the supervision; treatment and care" a person held in care receives, specifically in this case, Baby H who was a 'person held in care' within the meaning of the Coroners Act 1996 (WA).
-In fact, the coroner made three recommendations aimed at addressing further issues identified during the inquest. While the report does not specify the details of these recommendations, it implies that the coroner did evaluate the adequacy of supervision, treatment, and care provided to Baby H.
-It can be inferred that if the coroner had found the supervision, treatment, or care to be inadequate, they would have made specific recommendations to address these issues. The fact that three recommendations were made suggests that some level of evaluation and assessment was conducted, leading to changes being implemented by governmental departments following Baby H's death.</t>
-  </si>
-  <si>
-    <t>Yes, this case highlights several broader patterns and lessons relevant to public safety and institutional care. The tragic death of Baby H raises important questions about the effectiveness of child protection systems and the importance of timely intervention.
-One key lesson is the need for more effective communication and collaboration between different agencies and professionals involved in providing care to vulnerable children. In this case, there were missed opportunities for the Department to intervene earlier due to delays in communicating with healthcare providers and other stakeholders. This highlights the importance of clear lines of communication, regular updates, and a culture of cooperation among professionals working on behalf of children.
-Another lesson is the need for more effective support and resources for families who are struggling with mental health issues or other challenges that may impact their ability to provide adequate care. The mother's mental health struggles were identified as a concern by the grandmother, but it appears that this information was not adequately addressed or supported by the Department.
-The case also highlights the importance of policy and procedure in preventing child deaths. The introduction of new intake procedures, high-risk infant policies, and other changes implemented by the Department suggest an effort to learn from past mistakes and improve outcomes for vulnerable children. However, the fact that there were still missed opportunities suggests that more work is needed to ensure that these policies are effectively implemented and enforced.
-Finally, the case underscores the need for a culture of safety and transparency in institutions that provide care to vulnerable populations. The Department's acknowledgment of shortcomings and commitment to making changes suggest an important step towards learning from mistakes and preventing similar tragedies in the future.
-Overall, the case of Baby H serves as a reminder of the importance of effective child protection systems, timely intervention, and support for families struggling with challenges that may impact their ability to provide adequate care.</t>
+    <t>The name of the deceased is "Baby H".</t>
+  </si>
+  <si>
+    <t>The death of Baby H occurred after she was placed into the care and protection of the Department on May 26, 2017, but exactly when is not stated in the provided context. However, based on the information given that Dr McCreath conducted a post-mortem examination 2 days later (on May 29) and some statements were made by witnesses dated 26 October 2020, it can be inferred that Baby H's death occurred around or after 26 May 2017, but a precise date is not specified.</t>
+  </si>
+  <si>
+    <t>The coroner's inquest states that Baby H died at Princess Margaret Hospital.</t>
+  </si>
+  <si>
+    <t>The cause of death was head and neck injuries.</t>
+  </si>
+  <si>
+    <t>The presiding coroner was Philip John Urquhart.</t>
+  </si>
+  <si>
+    <t>Based on the provided context information, the circumstances leading to Baby H's death involved:
+1. The mother of Baby H inflicted horrific injuries on her, which led to the Department of Child Protection and Family Support (the Department) taking her into care.
+2. Despite being placed in care, there were missed opportunities for earlier intervention by the Department.
+3. The mother was identified as the person responsible for Baby H's death.
+These circumstances ultimately led to Baby H's tragic death on May 28, 2017, at the age of 4 months and 9 days.</t>
+  </si>
+  <si>
+    <t>Based on the provided context information, it appears that Baby H had several medical issues. According to Exhibit 1, Vol. 2, Tab 6 (dated 26 April 2017), the grandmother stated that Baby H had suffered stress-related changes in the thymus.
+Additionally, microscopic examination of Baby H's tissues revealed bronchopneumonia in the lungs and stress-related changes in the thymus. There was also bruising observed on various parts of Baby H's body, including the left jawline, arm, and front of the neck.
+It is not explicitly stated whether Baby H had any relevant mental health history or if there were any concerns about their mental well-being prior to their death.</t>
+  </si>
+  <si>
+    <t>The following people testified or assisted in the inquest:
+Tested:
+* Baby H's maternal grandmother
+* Sergeant Simon Bowen (detective with the Homicide squad)
+* Nicole Mitchell (team leader with the Department)
+* Suzanne Smith (registered nurse at BRH)
+* Tara Tomsett (child protection worker with the Department)
+* Dr. Helen Truong (resident medical officer in the emergency department of BRH)
+* Glenn Mace (executive director in the Community Services division of the Department)
+* Sharlene Abbott (acting director of Population Health at WACHS South West)
+Assisted:
+* Ms S Tyler assisted the Coroner, Mr B Nelson
+* Ms A Miller appeared on behalf of the Department of Communities and WA Country Health Services</t>
+  </si>
+  <si>
+    <t>Yes, the deceased, Baby H, was considered a "person held in care" under the Coroners Act 1996 (WA), as she had been placed into the care of the CEO of the Department of Child Protection and Family Support two days before her death.</t>
+  </si>
+  <si>
+    <t>Based on the provided context information, there is no mention of any substance or drug being found in Baby H's body. However, it is mentioned that microscopic examination of Baby H's tissues showed bronchopneumonia in the lungs and stress-related changes in the thymus (a gland in the chest).</t>
+  </si>
+  <si>
+    <t>Unfortunately, there is no explicit mention of the coroner's findings in the provided text. The coroner (P J Urquhart) mentions that their primary function was to investigate Baby Hs death and make a factfinding report on how her death occurred and its cause, but they do not provide an account of any specific findings or conclusions reached during the inquest.</t>
+  </si>
+  <si>
+    <t>Based on the provided context information, it appears that the coroner made three recommendations aimed at addressing issues identified during the inquest into Baby H's death. However, it is not explicitly stated whether these recommendations specifically focused on future prevention.
+The relevant paragraph reads:
+"I have made three recommendations   aimed at addressing the further issues I have identified during the inquest. It is my hope that these recommendations;, and the changes already made by the governmental departments following Baby Hs death, may provide some consolation to her family for their heart-rending loss."
+Given this context, it can be inferred that the coroner's recommendations were intended to address the issues identified during the inquest and provide some form of comfort to the family. However, without more specific information, it is difficult to determine whether these recommendations focused on future prevention.
+It's worth noting that recommendation 165 states: "I am firmly of the view that the death of H highlights the need for this recommendation to be carefully considered by the Western Australian Government." This suggests that the coroner may have made a recommendation related to preventing similar deaths in the future.</t>
+  </si>
+  <si>
+    <t>Based on the provided context information, it is difficult to determine a clear distinction between the immediate cause of death and contributing factors. However, based on the available evidence, here's an attempt to differentiate between the two:
+Immediate Cause of Death:
+- The presence of fresh bruising to Baby Hs arm, neck, and jawline, which was observed macroscopically by Dr Judith McCreath during the post-mortem examination.
+Contributing Factors:
+- Bronchopneumonia in the lungs
+- Stress-related changes in the thymus (a gland in the chest)
+- Swelling of the brain due to a right subdural hemorrhage and diffuse subarachnoid hemorrhage
+It is essential to note that the immediate cause of death might not necessarily be the sole contributing factor. The combination of these factors, including the presence of bruises and underlying medical conditions like bronchopneumonia and stress-related changes in the thymus, likely played a role in Baby H's death.</t>
+  </si>
+  <si>
+    <t>Yes, the coroner evaluated the adequacy of supervision, treatment, or care provided to Baby H. The context information indicates that a coronial inquest was mandatory due to Baby H being a 'person held in care' when she died, and the coroner had to comment on the quality of the supervision, treatment, and care received from the Department while in that care.
+The coroner made three recommendations aimed at addressing further issues identified during the inquest. This suggests that the coroner did conduct an evaluation of the adequacy of supervision, treatment, or care provided, and based on their findings, made recommendations for improvement.
+The fact that the Department has already implemented changes following Baby H's death also supports this conclusion, as it suggests that the coroner's recommendations were taken into consideration and acted upon by the government departments.</t>
+  </si>
+  <si>
+    <t>Yes, this case highlights several broader patterns and lessons relevant to public safety and institutional care. 
+Firstly, the case highlights the importance of early intervention in cases of child abuse and neglect. The Department's involvement came too late, and it is possible that earlier intervention could have prevented Baby H's death.
+Secondly, the case suggests that missed opportunities can lead to tragic outcomes, but simply being involved in an opportunity missed does not mean a person or entity should be held responsible for subsequent deaths. This highlights the need for institutional accountability and the importance of learning from missed opportunities.
+Thirdly, the case emphasizes the need for effective communication and coordination between agencies and professionals when dealing with cases of child abuse and neglect. The Department's failure to effectively communicate with each other and with the mother led to delays in intervention.
+Lastly, the case highlights the importance of addressing underlying issues such as mental health concerns and poverty, which can contribute to child abuse and neglect.
+Overall, this case suggests that public safety and institutional care require a proactive approach, effective communication, and a commitment to learning from missed opportunities.</t>
   </si>
 </sst>
 </file>
